--- a/biology/Histoire de la zoologie et de la botanique/Paul_Paris/Paul_Paris.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Paris/Paul_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Paris (1875-1938) est un ornithologue français qui participa en 1929 à la création de Alauda, Revue internationale d'Ornithologie, en compagnie de Noël Mayaud, Henri Heim de Balsac, Jacques de Chavigny, Jacques Delamain, Henri Jouard, Louis Lavauden et Paul Poty.
 </t>
@@ -511,9 +523,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette bibliographie a été établie à l'aide de deux ouvrages de référence[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette bibliographie a été établie à l'aide de deux ouvrages de référence,.
 (1904) Oiseaux d'Europe, Bull. mens. AFAS, 263.
 (1906) Les Oiseaux d'Europe, Lucien Laveur, Paris, 248 p.
 (1906) Sur la glande uropygienne des Oiseaux, Bull. Soc. Zool. France, 31 : 101-107.
